--- a/tmp/export/DD_08032024.xlsx
+++ b/tmp/export/DD_08032024.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RUN_TIME_3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUN_TIME_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RUN_TIME_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUN_TIME_4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUN_TIME_3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RUN_TIME_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUN_TIME_1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -560,108 +561,108 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" t="n">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" t="n">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" t="n">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" t="n">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" t="n">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" t="n">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" t="n">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:16:54</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:50:26</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Removed</t>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Inserted</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" t="n">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" t="n">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" t="n">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" t="n">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" t="n">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" t="n">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" t="n">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" t="n">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" t="n">
         <v>40</v>
       </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:16:54</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:50:26</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>42</v>
       </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>Removed</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Inserted</t>
         </is>
       </c>
     </row>
@@ -815,108 +816,108 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>2024-03-08 19:16:54</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>No_changed</t>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>2024-03-08 19:16:54</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>No_changed</t>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -1065,6 +1066,261 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:16:54</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:16:54</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:16:54</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Inserted</t>
         </is>
       </c>

--- a/tmp/export/DD_08032024.xlsx
+++ b/tmp/export/DD_08032024.xlsx
@@ -4,13 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RUN_TIME_4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUN_TIME_3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RUN_TIME_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="RUN_TIME_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RUN_TIME_5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUN_TIME_4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RUN_TIME_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUN_TIME_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RUN_TIME_1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -561,108 +562,108 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>2024-03-08 19:50:26</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Inserted</t>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>2024-03-08 19:50:26</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Inserted</t>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -816,108 +817,108 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" t="n">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" t="n">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" t="n">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" t="n">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" t="n">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" t="n">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" t="n">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:16:54</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:50:26</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Removed</t>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Inserted</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" t="n">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" t="n">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" t="n">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" t="n">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" t="n">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" t="n">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" t="n">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" t="n">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" t="n">
         <v>40</v>
       </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:16:54</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:50:26</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>42</v>
       </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>Removed</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Inserted</t>
         </is>
       </c>
     </row>
@@ -1071,108 +1072,108 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>2024-03-08 19:16:54</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>No_changed</t>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>2024-03-08 19:16:54</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>No_changed</t>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -1321,6 +1322,261 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:16:54</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:16:54</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-08 19:16:54</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Inserted</t>
         </is>
       </c>

--- a/tmp/export/DD_08032024.xlsx
+++ b/tmp/export/DD_08032024.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:51:43</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -557,113 +557,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>No_changed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:50:26</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:50:26</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>Removed</t>
+          <t>Updated</t>
         </is>
       </c>
     </row>
@@ -678,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +659,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -804,7 +698,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:50:56</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -812,113 +706,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>No_changed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:50:26</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>28</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Inserted</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34</v>
-      </c>
-      <c r="G4" t="n">
-        <v>35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:50:26</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>42</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Inserted</t>
+          <t>Updated</t>
         </is>
       </c>
     </row>
@@ -1059,7 +847,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:48:19</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -1112,7 +900,7 @@
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:48:37</t>
         </is>
       </c>
       <c r="N3" s="1" t="n">
@@ -1165,7 +953,7 @@
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:48:37</t>
         </is>
       </c>
       <c r="N4" s="1" t="n">
@@ -1314,7 +1102,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:48:19</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -1367,7 +1155,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:48:37</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -1375,7 +1163,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>No_changed</t>
+          <t>Inserted</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1208,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:48:37</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1428,7 +1216,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>No_changed</t>
+          <t>Inserted</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1569,119 +1357,13 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-08 19:16:54</t>
+          <t>2024-03-08 23:48:19</t>
         </is>
       </c>
       <c r="N2" t="n">
         <v>14</v>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Inserted</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:16:54</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>28</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Inserted</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34</v>
-      </c>
-      <c r="G4" t="n">
-        <v>35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-03-08</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024-03-08 19:16:54</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>42</v>
-      </c>
-      <c r="O4" t="inlineStr">
         <is>
           <t>Inserted</t>
         </is>

--- a/tmp/export/DD_08032024.xlsx
+++ b/tmp/export/DD_08032024.xlsx
@@ -4,14 +4,16 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RUN_TIME_5" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUN_TIME_4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RUN_TIME_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="RUN_TIME_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="RUN_TIME_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RUN_TIME_7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUN_TIME_6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RUN_TIME_5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUN_TIME_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RUN_TIME_3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RUN_TIME_2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RUN_TIME_1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +559,60 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-08 23:57:00</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Inserted</t>
         </is>
       </c>
     </row>
@@ -659,7 +714,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -698,7 +753,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-08 23:50:56</t>
+          <t>2024-03-08 23:51:43</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -706,7 +761,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>No_changed</t>
         </is>
       </c>
     </row>
@@ -716,6 +771,304 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-08 23:51:43</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-08 23:50:56</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -970,7 +1323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
